--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B50747-0C18-AF42-AC1F-0A362BB180B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4FC4D-92DA-304E-BF9A-08CF29075377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>drg_location</t>
   </si>
@@ -129,6 +129,39 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>(wp prefix)_zen_location_tags</t>
+  </si>
+  <si>
+    <t>(wp prefix)_zen_location_tag_relations</t>
+  </si>
+  <si>
+    <t>(wp prefix)_zen_service_tags</t>
+  </si>
+  <si>
+    <t>(wp prefix)_zen_service_tag_relations</t>
+  </si>
+  <si>
+    <t>(wp prefix)_zen_kpage_tags</t>
+  </si>
+  <si>
+    <t>(wp prefix)_zen_kpage_tag_relations</t>
+  </si>
+  <si>
+    <t>(wp prefix)_zen_kpages</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>yes cache all content here</t>
+  </si>
+  <si>
+    <t>maybe I actually should not do this part</t>
   </si>
 </sst>
 </file>
@@ -545,11 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0A80BD-7D26-6B43-92D3-3508CEB5CD37}">
-  <dimension ref="D1:M70"/>
+  <dimension ref="D1:M126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -597,171 +630,239 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" spans="4:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E33" s="1" t="s">
+    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="4:13" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="4:13" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="4:13" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="4:13" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="4:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
+    <row r="44" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="4:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D37" s="1" t="s">
+    <row r="45" spans="4:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D38" s="5">
+    <row r="46" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D46" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D39" s="5">
+    <row r="47" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D47" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D40" s="5">
+    <row r="48" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D48" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D41" s="5">
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D49" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="4:11" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" spans="4:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E50" s="1" t="s">
+    <row r="60" spans="4:6" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="4:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="F51" s="3" t="s">
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="F52" s="3" t="s">
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="F53" s="3" t="s">
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="F54" s="3" t="s">
+    <row r="65" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F65" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
+    <row r="67" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="4:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D57" s="1" t="s">
+    <row r="68" spans="4:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I68" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J68" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="K68" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D58">
+    <row r="69" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D69">
         <v>1</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D59">
+    <row r="70" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D70">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E70" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D60">
+    <row r="71" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D71">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D61">
+    <row r="72" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D72">
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D62">
+    <row r="73" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D73">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D63">
+    <row r="74" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D74">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D64">
+    <row r="75" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D75">
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D65">
+    <row r="76" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="D76">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E70" s="1" t="s">
+    <row r="80" spans="4:11" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="4:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D92" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E95" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E117" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E121" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E126" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B4FC4D-92DA-304E-BF9A-08CF29075377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BB204C-7501-A34F-91A4-44FDF173B664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -581,8 +581,8 @@
   <dimension ref="D1:M126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/180 new ruplin db structures for locations services - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/180 new ruplin db structures for locations services/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BB204C-7501-A34F-91A4-44FDF173B664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFC362D-6CBD-6947-BAC1-FD7AD5E9E383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{14C4862E-D5C5-2A49-820C-32CA6AE9D6C2}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
